--- a/datasets/Sample_Sheet.xlsx
+++ b/datasets/Sample_Sheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grovesdixon/git_Repositories/reciprocal_transplant_methylation/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grovesdixon/gitreps/reciprocal_transplant_methylation/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="8040" yWindow="2700" windowWidth="32660" windowHeight="23620" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="8040" yWindow="2700" windowWidth="32660" windowHeight="23620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="extracted_for_bisulfite" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="187">
   <si>
     <t>Sample</t>
   </si>
@@ -263,9 +263,6 @@
     <t>Tissue left?</t>
   </si>
   <si>
-    <t>#This is a table of all the samples that still have tissue left stored in chest -80</t>
-  </si>
-  <si>
     <t>Treatment</t>
   </si>
   <si>
@@ -585,6 +582,15 @@
   </si>
   <si>
     <t>primer set</t>
+  </si>
+  <si>
+    <t>#These are all the samples for which we have MBD-seq data</t>
+  </si>
+  <si>
+    <t>#This is a table of all the samples that still have tissue left</t>
+  </si>
+  <si>
+    <t>#they are stored in chest -80</t>
   </si>
 </sst>
 </file>
@@ -800,14 +806,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -819,9 +819,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -838,10 +835,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1137,24 +1143,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="K1" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="A1" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="K1" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -1175,23 +1181,23 @@
       <c r="F2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" t="s">
         <v>116</v>
       </c>
-      <c r="O2" t="s">
-        <v>117</v>
-      </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1229,7 +1235,7 @@
         <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1252,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L4">
         <v>54</v>
@@ -1267,12 +1273,12 @@
         <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="1">
         <v>42746</v>
@@ -1335,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1371,7 +1377,7 @@
         <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1407,12 +1413,12 @@
         <v>46</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="1">
         <v>42763</v>
@@ -1428,7 +1434,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L9">
         <v>137</v>
@@ -1443,7 +1449,7 @@
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1464,7 +1470,7 @@
       </c>
       <c r="F10" s="2"/>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L10">
         <v>31</v>
@@ -1479,7 +1485,7 @@
         <v>46</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1515,7 +1521,7 @@
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1536,7 +1542,7 @@
       </c>
       <c r="F12" s="2"/>
       <c r="K12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L12">
         <v>235</v>
@@ -1551,7 +1557,7 @@
         <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1572,7 +1578,7 @@
       </c>
       <c r="F13" s="2"/>
       <c r="K13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L13">
         <v>89</v>
@@ -1587,7 +1593,7 @@
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1623,7 +1629,7 @@
         <v>46</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1644,7 +1650,7 @@
       </c>
       <c r="F15" s="2"/>
       <c r="K15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L15">
         <v>43</v>
@@ -1659,7 +1665,7 @@
         <v>46</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1689,7 +1695,7 @@
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1719,7 +1725,7 @@
         <v>46</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1749,7 +1755,7 @@
         <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1785,7 +1791,7 @@
         <v>46</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1806,7 +1812,7 @@
       </c>
       <c r="F20" s="2"/>
       <c r="K20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L20">
         <v>29</v>
@@ -1821,7 +1827,7 @@
         <v>46</v>
       </c>
       <c r="P20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1842,7 +1848,7 @@
       </c>
       <c r="F21" s="2"/>
       <c r="K21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L21">
         <v>179</v>
@@ -1857,7 +1863,7 @@
         <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -1878,7 +1884,7 @@
       </c>
       <c r="F22" s="2"/>
       <c r="K22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L22">
         <v>500</v>
@@ -1893,7 +1899,7 @@
         <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -1914,7 +1920,7 @@
       </c>
       <c r="F23" s="2"/>
       <c r="K23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L23">
         <v>225</v>
@@ -1929,7 +1935,7 @@
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -1950,7 +1956,7 @@
       </c>
       <c r="F24" s="2"/>
       <c r="K24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L24">
         <v>460</v>
@@ -1965,7 +1971,7 @@
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -1986,7 +1992,7 @@
       </c>
       <c r="F25" s="2"/>
       <c r="K25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L25">
         <v>482</v>
@@ -2001,7 +2007,7 @@
         <v>46</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -2037,12 +2043,12 @@
         <v>46</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="1">
         <v>42763</v>
@@ -2075,7 +2081,7 @@
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -2111,7 +2117,7 @@
         <v>46</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -2147,12 +2153,12 @@
         <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" s="1">
         <v>42761</v>
@@ -2168,7 +2174,7 @@
       </c>
       <c r="F30" s="2"/>
       <c r="K30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L30">
         <v>427</v>
@@ -2183,7 +2189,7 @@
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -2197,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L31">
         <v>172</v>
@@ -2212,12 +2218,12 @@
         <v>46</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="1">
         <v>42761</v>
@@ -2248,12 +2254,12 @@
         <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="1">
         <v>42761</v>
@@ -2269,7 +2275,7 @@
       </c>
       <c r="F33" s="2"/>
       <c r="K33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L33">
         <v>55</v>
@@ -2284,12 +2290,12 @@
         <v>46</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="1">
         <v>42763</v>
@@ -2307,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L34">
         <v>141</v>
@@ -2322,7 +2328,7 @@
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -2336,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L35">
         <v>34</v>
@@ -2351,12 +2357,12 @@
         <v>46</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" s="1">
         <v>42761</v>
@@ -2387,7 +2393,7 @@
         <v>46</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -2413,7 +2419,7 @@
         <v>24</v>
       </c>
       <c r="P37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -2442,7 +2448,7 @@
         <v>46</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -2471,12 +2477,12 @@
         <v>46</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="1">
         <v>42761</v>
@@ -2507,12 +2513,12 @@
         <v>46</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="1">
         <v>42761</v>
@@ -2528,7 +2534,7 @@
       </c>
       <c r="F41" s="2"/>
       <c r="K41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L41">
         <v>100</v>
@@ -2543,12 +2549,12 @@
         <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" s="1">
         <v>42761</v>
@@ -2564,7 +2570,7 @@
       </c>
       <c r="F42" s="2"/>
       <c r="K42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="3"/>
@@ -2572,12 +2578,12 @@
         <v>46</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" s="1">
         <v>42761</v>
@@ -2593,7 +2599,7 @@
       </c>
       <c r="F43" s="2"/>
       <c r="K43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="3"/>
@@ -2601,12 +2607,12 @@
         <v>46</v>
       </c>
       <c r="P43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B44" s="1">
         <v>42761</v>
@@ -2624,7 +2630,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" s="1">
         <v>42761</v>
@@ -2642,7 +2648,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" s="1">
         <v>42761</v>
@@ -2662,7 +2668,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" s="1">
         <v>42761</v>
@@ -2700,34 +2706,34 @@
         <v>0</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L49" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M49" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N49" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="P49" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q49" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="M49" s="16" t="s">
+      <c r="R49" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="S49" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="T49" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="N49" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="P49" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q49" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="R49" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="S49" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="T49" s="16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
@@ -2741,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K50" t="s">
         <v>1</v>
@@ -2758,7 +2764,7 @@
         <v>3.6065573770491817</v>
       </c>
       <c r="P50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q50" t="s">
         <v>66</v>
@@ -2777,7 +2783,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51" s="1">
         <v>42763</v>
@@ -2795,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K51" t="s">
         <v>2</v>
@@ -2812,7 +2818,7 @@
         <v>11.228070175438596</v>
       </c>
       <c r="P51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q51" t="s">
         <v>70</v>
@@ -2831,7 +2837,7 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="1">
         <v>42761</v>
@@ -2847,10 +2853,10 @@
       </c>
       <c r="F52" s="2"/>
       <c r="J52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L52" s="3">
         <v>179</v>
@@ -2864,10 +2870,10 @@
         <v>14.41340782122905</v>
       </c>
       <c r="P52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R52">
         <v>31</v>
@@ -2883,7 +2889,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" s="12">
         <v>42763</v>
@@ -2892,10 +2898,10 @@
         <v>35</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K53" t="s">
         <v>8</v>
@@ -2912,7 +2918,7 @@
         <v>-3.2558139534883708</v>
       </c>
       <c r="P53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q53" t="s">
         <v>5</v>
@@ -2931,7 +2937,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54" s="12">
         <v>42763</v>
@@ -2940,10 +2946,10 @@
         <v>35</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K54" t="s">
         <v>9</v>
@@ -2960,10 +2966,10 @@
         <v>-13.333333333333336</v>
       </c>
       <c r="P54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R54">
         <v>43</v>
@@ -2979,7 +2985,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K55" t="s">
         <v>10</v>
@@ -2996,7 +3002,7 @@
         <v>6.3013698630136989</v>
       </c>
       <c r="P55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q55" t="s">
         <v>67</v>
@@ -3015,10 +3021,10 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L56" s="3">
         <v>54</v>
@@ -3032,7 +3038,7 @@
         <v>1.481481481481481</v>
       </c>
       <c r="P56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q56" t="s">
         <v>71</v>
@@ -3051,10 +3057,10 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L57" s="3">
         <v>89</v>
@@ -3068,10 +3074,10 @@
         <v>8.7640449438202239</v>
       </c>
       <c r="P57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R57">
         <v>29</v>
@@ -3087,10 +3093,10 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L58" s="3">
         <v>225</v>
@@ -3104,10 +3110,10 @@
         <v>15.555555555555555</v>
       </c>
       <c r="P58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R58">
         <v>482</v>
@@ -3123,10 +3129,10 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>460</v>
@@ -3140,7 +3146,7 @@
         <v>17.826086956521738</v>
       </c>
       <c r="P59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q59" t="s">
         <v>6</v>
@@ -3159,10 +3165,10 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L60" s="3">
         <v>141</v>
@@ -3176,7 +3182,7 @@
         <v>12.907801418439718</v>
       </c>
       <c r="P60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q60" t="s">
         <v>72</v>
@@ -3195,10 +3201,10 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L61" s="3">
         <v>137</v>
@@ -3212,10 +3218,10 @@
         <v>12.700729927007298</v>
       </c>
       <c r="P61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R61">
         <v>172</v>
@@ -3231,10 +3237,10 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L62" s="3">
         <v>427</v>
@@ -3248,10 +3254,10 @@
         <v>17.658079625292739</v>
       </c>
       <c r="P62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62">
         <v>55</v>
@@ -3267,10 +3273,10 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L63" s="3">
         <v>100</v>
@@ -3284,10 +3290,10 @@
         <v>10</v>
       </c>
       <c r="P63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R63">
         <v>34</v>
@@ -3305,7 +3311,7 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="P64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q64" t="s">
         <v>7</v>
@@ -3324,7 +3330,7 @@
     </row>
     <row r="65" spans="11:20" x14ac:dyDescent="0.2">
       <c r="P65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q65" t="s">
         <v>68</v>
@@ -3343,7 +3349,7 @@
     </row>
     <row r="66" spans="11:20" x14ac:dyDescent="0.2">
       <c r="P66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q66" t="s">
         <v>73</v>
@@ -3362,7 +3368,7 @@
     </row>
     <row r="67" spans="11:20" x14ac:dyDescent="0.2">
       <c r="P67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q67" t="s">
         <v>75</v>
@@ -3381,10 +3387,10 @@
     </row>
     <row r="68" spans="11:20" x14ac:dyDescent="0.2">
       <c r="P68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R68">
         <v>114</v>
@@ -3400,10 +3406,10 @@
     </row>
     <row r="69" spans="11:20" x14ac:dyDescent="0.2">
       <c r="P69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R69">
         <v>179</v>
@@ -3456,85 +3462,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>3</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -3542,21 +3542,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3564,43 +3564,43 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -3608,21 +3608,21 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3630,21 +3630,21 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17">
         <v>11</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -3652,73 +3652,73 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19">
         <v>12</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21">
         <v>13</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23">
         <v>14</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24">
         <v>14</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -3726,10 +3726,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -3737,76 +3737,76 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -3814,10 +3814,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -3825,109 +3825,109 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37">
         <v>12</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39">
         <v>13</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41">
         <v>14</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>14</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3935,32 +3935,32 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
         <v>2</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3968,10 +3968,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3979,10 +3979,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3990,10 +3990,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4001,10 +4001,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4012,10 +4012,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4023,10 +4023,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4034,21 +4034,21 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54">
         <v>11</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -4056,54 +4056,54 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B57">
         <v>13</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B58">
         <v>13</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4122,21 +4122,21 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -4144,10 +4144,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -4155,43 +4155,43 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B66">
         <v>5</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4199,65 +4199,65 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69">
         <v>7</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B72">
         <v>9</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4265,10 +4265,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4276,21 +4276,21 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76">
         <v>12</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -4298,21 +4298,21 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4320,34 +4320,45 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80">
         <v>15</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82">
         <v>33</v>
       </c>
       <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>33</v>
+      </c>
+      <c r="C83">
         <v>2</v>
       </c>
     </row>
@@ -4358,23 +4369,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4382,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -4390,7 +4404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4398,7 +4412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -4406,7 +4420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -4414,7 +4428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -4422,7 +4436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -4430,7 +4444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -4438,7 +4452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -4446,7 +4460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4454,7 +4468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -4462,7 +4476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -4470,7 +4484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -4478,7 +4492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -4486,7 +4500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -4787,7 +4801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="AP76" sqref="AP76"/>
     </sheetView>
   </sheetViews>
@@ -4803,87 +4817,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="T1" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="T1" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>163</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>164</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>165</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>166</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>167</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>168</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>169</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>170</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>171</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>172</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>173</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>174</v>
-      </c>
-      <c r="S2" t="s">
-        <v>175</v>
       </c>
       <c r="T2">
         <v>13</v>
@@ -4936,23 +4950,23 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="22">
         <v>293</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="24">
         <v>42746</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="20">
         <v>24</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="22">
         <v>43</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>182</v>
+      <c r="F3" s="26" t="s">
+        <v>181</v>
       </c>
       <c r="G3" s="3">
         <v>45</v>
@@ -4993,26 +5007,26 @@
       <c r="S3" s="3">
         <v>48</v>
       </c>
-      <c r="T3" s="31">
+      <c r="T3" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <v>351</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <v>42746</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <v>24</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="29" t="s">
-        <v>183</v>
+      <c r="E4" s="22"/>
+      <c r="F4" s="26" t="s">
+        <v>182</v>
       </c>
       <c r="G4" s="3">
         <v>45</v>
@@ -5053,7 +5067,7 @@
       <c r="S4" s="3">
         <v>48</v>
       </c>
-      <c r="T4" s="31">
+      <c r="T4" s="28">
         <v>1</v>
       </c>
       <c r="Z4">
@@ -5061,23 +5075,23 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="22">
         <v>202</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="24">
         <v>42759</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <v>33</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="22">
         <v>43</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>112</v>
+      <c r="F5" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="G5" s="3">
         <v>45</v>
@@ -5118,28 +5132,28 @@
       <c r="S5" s="3">
         <v>48</v>
       </c>
-      <c r="T5" s="31">
+      <c r="T5" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="24">
+      <c r="A6" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="22">
         <v>235</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="24">
         <v>42761</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <v>35</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="22">
         <v>43</v>
       </c>
-      <c r="F6" s="29" t="s">
-        <v>113</v>
+      <c r="F6" s="26" t="s">
+        <v>112</v>
       </c>
       <c r="G6" s="3">
         <v>45</v>
@@ -5180,28 +5194,28 @@
       <c r="S6" s="3">
         <v>48</v>
       </c>
-      <c r="T6" s="31">
+      <c r="T6" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="24">
+      <c r="A7" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="22">
         <v>500</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="24">
         <v>42761</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <v>35</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="22">
         <v>43</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>114</v>
+      <c r="F7" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="G7" s="3">
         <v>45</v>
@@ -5242,29 +5256,29 @@
       <c r="S7" s="3">
         <v>48</v>
       </c>
-      <c r="T7" s="31">
-        <v>1</v>
-      </c>
-      <c r="V7" s="31"/>
+      <c r="T7" s="28">
+        <v>1</v>
+      </c>
+      <c r="V7" s="28"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="22">
         <v>545</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <v>42759</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <v>33</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="22">
         <v>43</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>115</v>
+      <c r="F8" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="G8" s="3">
         <v>45</v>
@@ -5305,29 +5319,29 @@
       <c r="S8" s="3">
         <v>48</v>
       </c>
-      <c r="T8" s="31">
-        <v>1</v>
-      </c>
-      <c r="U8" s="31"/>
+      <c r="T8" s="28">
+        <v>1</v>
+      </c>
+      <c r="U8" s="28"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="24">
+      <c r="A9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="22">
         <v>61</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="24">
         <v>42746</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="20">
         <v>24</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="22">
         <v>44</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>123</v>
+      <c r="F9" s="26" t="s">
+        <v>122</v>
       </c>
       <c r="G9" s="3">
         <v>45</v>
@@ -5368,28 +5382,28 @@
       <c r="S9" s="3">
         <v>48</v>
       </c>
-      <c r="T9" s="31">
+      <c r="T9" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="22">
         <v>114</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="24">
         <v>42746</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="20">
         <v>24</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <v>44</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>125</v>
+      <c r="F10" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="G10" s="3">
         <v>45</v>
@@ -5430,28 +5444,28 @@
       <c r="S10" s="3">
         <v>48</v>
       </c>
-      <c r="T10" s="31">
+      <c r="T10" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="24">
+      <c r="A11" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="22">
         <v>179</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="24">
         <v>42746</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="20">
         <v>24</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="22">
         <v>44</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>126</v>
+      <c r="F11" s="26" t="s">
+        <v>125</v>
       </c>
       <c r="G11" s="3">
         <v>45</v>
@@ -5492,28 +5506,28 @@
       <c r="S11" s="3">
         <v>51</v>
       </c>
-      <c r="T11" s="31">
+      <c r="T11" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="22">
         <v>43</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="24">
         <v>42746</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="20">
         <v>24</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="22">
         <v>44</v>
       </c>
-      <c r="F12" s="29" t="s">
-        <v>127</v>
+      <c r="F12" s="26" t="s">
+        <v>126</v>
       </c>
       <c r="G12" s="3">
         <v>45</v>
@@ -5554,28 +5568,28 @@
       <c r="S12" s="3">
         <v>51</v>
       </c>
-      <c r="T12" s="31">
+      <c r="T12" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="22">
         <v>30</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="24">
         <v>42746</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="20">
         <v>24</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="22">
         <v>44</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>128</v>
+      <c r="F13" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="G13" s="3">
         <v>45</v>
@@ -5616,28 +5630,28 @@
       <c r="S13" s="3">
         <v>51</v>
       </c>
-      <c r="T13" s="31">
+      <c r="T13" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="22">
         <v>73</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="24">
         <v>42746</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="20">
         <v>24</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="22">
         <v>44</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>129</v>
+      <c r="F14" s="26" t="s">
+        <v>128</v>
       </c>
       <c r="G14" s="3">
         <v>45</v>
@@ -5678,28 +5692,28 @@
       <c r="S14" s="3">
         <v>51</v>
       </c>
-      <c r="T14" s="31">
+      <c r="T14" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="24">
-        <v>54</v>
-      </c>
-      <c r="C15" s="26">
+      <c r="A15" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="22">
+        <v>54</v>
+      </c>
+      <c r="C15" s="24">
         <v>42761</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="20">
         <v>35</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="22">
         <v>44</v>
       </c>
-      <c r="F15" s="29" t="s">
-        <v>130</v>
+      <c r="F15" s="26" t="s">
+        <v>129</v>
       </c>
       <c r="G15" s="3">
         <v>45</v>
@@ -5740,28 +5754,28 @@
       <c r="S15" s="3">
         <v>51</v>
       </c>
-      <c r="T15" s="31">
+      <c r="T15" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="24">
+      <c r="A16" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="22">
         <v>89</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="24">
         <v>42761</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="20">
         <v>35</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="22">
         <v>44</v>
       </c>
-      <c r="F16" s="29" t="s">
-        <v>131</v>
+      <c r="F16" s="26" t="s">
+        <v>130</v>
       </c>
       <c r="G16" s="3">
         <v>45</v>
@@ -5802,28 +5816,28 @@
       <c r="S16" s="3">
         <v>51</v>
       </c>
-      <c r="T16" s="31">
+      <c r="T16" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="24">
+      <c r="A17" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="22">
         <v>225</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="24">
         <v>42761</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="20">
         <v>35</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="22">
         <v>44</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>132</v>
+      <c r="F17" s="26" t="s">
+        <v>131</v>
       </c>
       <c r="G17" s="3">
         <v>45</v>
@@ -5864,28 +5878,28 @@
       <c r="S17" s="3">
         <v>51</v>
       </c>
-      <c r="T17" s="31">
+      <c r="T17" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="24">
+      <c r="A18" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="22">
         <v>460</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="24">
         <v>42761</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="20">
         <v>35</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="22">
         <v>44</v>
       </c>
-      <c r="F18" s="29" t="s">
-        <v>133</v>
+      <c r="F18" s="26" t="s">
+        <v>132</v>
       </c>
       <c r="G18" s="3">
         <v>45</v>
@@ -5926,28 +5940,28 @@
       <c r="S18" s="3">
         <v>51</v>
       </c>
-      <c r="T18" s="31">
+      <c r="T18" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="24">
+      <c r="A19" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="22">
         <v>141</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="24">
         <v>42761</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="20">
         <v>35</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="22">
         <v>44</v>
       </c>
-      <c r="F19" s="29" t="s">
-        <v>134</v>
+      <c r="F19" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="G19" s="3">
         <v>45</v>
@@ -5988,28 +6002,28 @@
       <c r="S19" s="3">
         <v>54</v>
       </c>
-      <c r="T19" s="31">
+      <c r="T19" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="24">
+      <c r="A20" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="22">
         <v>137</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="24">
         <v>42761</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="20">
         <v>35</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="22">
         <v>44</v>
       </c>
-      <c r="F20" s="29" t="s">
-        <v>135</v>
+      <c r="F20" s="26" t="s">
+        <v>134</v>
       </c>
       <c r="G20" s="3">
         <v>45</v>
@@ -6050,31 +6064,31 @@
       <c r="S20" s="3">
         <v>54</v>
       </c>
-      <c r="T20" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="38">
+      <c r="T20" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="24">
+      <c r="A21" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="22">
         <v>427</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="24">
         <v>42761</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="20">
         <v>35</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="22">
         <v>44</v>
       </c>
-      <c r="F21" s="29" t="s">
-        <v>136</v>
+      <c r="F21" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="G21" s="3">
         <v>45</v>
@@ -6115,31 +6129,31 @@
       <c r="S21" s="3">
         <v>54</v>
       </c>
-      <c r="T21" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="38">
+      <c r="T21" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="24">
+      <c r="A22" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="22">
         <v>100</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="24">
         <v>42761</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="20">
         <v>35</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="22">
         <v>44</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>137</v>
+      <c r="F22" s="26" t="s">
+        <v>136</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -6180,31 +6194,31 @@
       <c r="S22" s="3">
         <v>54</v>
       </c>
-      <c r="T22" s="31">
+      <c r="T22" s="28">
         <v>0</v>
       </c>
-      <c r="Z22" s="38">
+      <c r="Z22" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="22">
         <v>63</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="24">
         <v>42759</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="20">
         <v>33</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="22">
         <v>46</v>
       </c>
-      <c r="F23" s="29" t="s">
-        <v>138</v>
+      <c r="F23" s="26" t="s">
+        <v>137</v>
       </c>
       <c r="G23" s="3">
         <v>47</v>
@@ -6245,29 +6259,29 @@
       <c r="S23" s="3">
         <v>54</v>
       </c>
-      <c r="T23" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="38"/>
+      <c r="T23" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="22">
         <v>91</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="24">
         <v>42759</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="20">
         <v>33</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="22">
         <v>46</v>
       </c>
-      <c r="F24" s="29" t="s">
-        <v>139</v>
+      <c r="F24" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="G24" s="3">
         <v>47</v>
@@ -6308,29 +6322,29 @@
       <c r="S24" s="3">
         <v>54</v>
       </c>
-      <c r="T24" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="38"/>
+      <c r="T24" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="24">
+      <c r="A25" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="22">
         <v>31</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="24">
         <v>42763</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="20">
         <v>35</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="22">
         <v>46</v>
       </c>
-      <c r="F25" s="29" t="s">
-        <v>140</v>
+      <c r="F25" s="26" t="s">
+        <v>139</v>
       </c>
       <c r="G25" s="3">
         <v>47</v>
@@ -6371,29 +6385,29 @@
       <c r="S25" s="3">
         <v>54</v>
       </c>
-      <c r="T25" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="38"/>
+      <c r="T25" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="22">
         <v>173</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="24">
         <v>42746</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="20">
         <v>24</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="22">
         <v>46</v>
       </c>
-      <c r="F26" s="29" t="s">
-        <v>141</v>
+      <c r="F26" s="26" t="s">
+        <v>140</v>
       </c>
       <c r="G26" s="3">
         <v>47</v>
@@ -6434,31 +6448,31 @@
       <c r="S26" s="3">
         <v>54</v>
       </c>
-      <c r="T26" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="38">
+      <c r="T26" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="24">
+      <c r="A27" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="22">
         <v>43</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="24">
         <v>42763</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="20">
         <v>35</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="22">
         <v>46</v>
       </c>
-      <c r="F27" s="29" t="s">
-        <v>142</v>
+      <c r="F27" s="26" t="s">
+        <v>141</v>
       </c>
       <c r="G27" s="3">
         <v>47</v>
@@ -6499,29 +6513,29 @@
       <c r="S27" s="3">
         <v>54</v>
       </c>
-      <c r="T27" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="38"/>
+      <c r="T27" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="22">
         <v>23</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="24">
         <v>42759</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="20">
         <v>33</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="22">
         <v>46</v>
       </c>
-      <c r="F28" s="29" t="s">
-        <v>143</v>
+      <c r="F28" s="26" t="s">
+        <v>142</v>
       </c>
       <c r="G28" s="3">
         <v>47</v>
@@ -6562,32 +6576,32 @@
       <c r="S28" s="3">
         <v>54</v>
       </c>
-      <c r="T28" s="31">
-        <v>1</v>
-      </c>
-      <c r="X28" s="38">
+      <c r="T28" s="28">
+        <v>1</v>
+      </c>
+      <c r="X28" s="35">
         <v>0</v>
       </c>
-      <c r="Z28" s="38"/>
+      <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="22">
         <v>74</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="24">
         <v>42759</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="20">
         <v>33</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="22">
         <v>46</v>
       </c>
-      <c r="F29" s="29" t="s">
-        <v>144</v>
+      <c r="F29" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="G29" s="3">
         <v>47</v>
@@ -6628,29 +6642,29 @@
       <c r="S29" s="3">
         <v>54</v>
       </c>
-      <c r="T29" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="38"/>
+      <c r="T29" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="24">
+      <c r="A30" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="22">
         <v>29</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="24">
         <v>42763</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="20">
         <v>35</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="22">
         <v>46</v>
       </c>
-      <c r="F30" s="29" t="s">
-        <v>145</v>
+      <c r="F30" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="G30" s="3">
         <v>47</v>
@@ -6691,29 +6705,29 @@
       <c r="S30" s="3">
         <v>54</v>
       </c>
-      <c r="T30" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="38"/>
+      <c r="T30" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="24">
+      <c r="A31" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="22">
         <v>482</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="24">
         <v>42763</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="20">
         <v>35</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="22">
         <v>46</v>
       </c>
-      <c r="F31" s="29" t="s">
-        <v>146</v>
+      <c r="F31" s="26" t="s">
+        <v>145</v>
       </c>
       <c r="G31" s="3">
         <v>47</v>
@@ -6754,31 +6768,31 @@
       <c r="S31" s="3">
         <v>54</v>
       </c>
-      <c r="T31" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="38">
+      <c r="T31" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="22">
         <v>19</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="24">
         <v>42746</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="20">
         <v>24</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="22">
         <v>46</v>
       </c>
-      <c r="F32" s="29" t="s">
-        <v>147</v>
+      <c r="F32" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="G32" s="3">
         <v>47</v>
@@ -6819,28 +6833,28 @@
       <c r="S32" s="3">
         <v>54</v>
       </c>
-      <c r="T32" s="31">
+      <c r="T32" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="22">
         <v>57</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="24">
         <v>42759</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="20">
         <v>33</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="22">
         <v>46</v>
       </c>
-      <c r="F33" s="29" t="s">
-        <v>148</v>
+      <c r="F33" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="G33" s="3">
         <v>47</v>
@@ -6881,28 +6895,28 @@
       <c r="S33" s="3">
         <v>54</v>
       </c>
-      <c r="T33" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="24">
+      <c r="T33" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="22">
         <v>172</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="24">
         <v>42761</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="20">
         <v>35</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="22">
         <v>46</v>
       </c>
-      <c r="F34" s="29" t="s">
-        <v>149</v>
+      <c r="F34" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="G34" s="3">
         <v>47</v>
@@ -6943,28 +6957,28 @@
       <c r="S34" s="3">
         <v>54</v>
       </c>
-      <c r="T34" s="31">
+      <c r="T34" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="24">
+      <c r="A35" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="22">
         <v>55</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="24">
         <v>42761</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="20">
         <v>35</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="22">
         <v>46</v>
       </c>
-      <c r="F35" s="29" t="s">
-        <v>150</v>
+      <c r="F35" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="G35" s="3">
         <v>47</v>
@@ -7005,28 +7019,28 @@
       <c r="S35" s="3">
         <v>54</v>
       </c>
-      <c r="T35" s="31">
+      <c r="T35" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="24">
+      <c r="A36" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="22">
         <v>34</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="24">
         <v>42761</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="20">
         <v>35</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="22">
         <v>46</v>
       </c>
-      <c r="F36" s="29" t="s">
-        <v>151</v>
+      <c r="F36" s="26" t="s">
+        <v>150</v>
       </c>
       <c r="G36" s="3">
         <v>47</v>
@@ -7067,28 +7081,28 @@
       <c r="S36" s="3">
         <v>54</v>
       </c>
-      <c r="T36" s="31">
+      <c r="T36" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="22">
         <v>191</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="24">
         <v>42746</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="20">
         <v>24</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="22">
         <v>46</v>
       </c>
-      <c r="F37" s="29" t="s">
-        <v>152</v>
+      <c r="F37" s="26" t="s">
+        <v>151</v>
       </c>
       <c r="G37" s="3">
         <v>47</v>
@@ -7129,28 +7143,28 @@
       <c r="S37" s="3">
         <v>54</v>
       </c>
-      <c r="T37" s="31">
+      <c r="T37" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="22">
         <v>31</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="24">
         <v>42759</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="20">
         <v>33</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="22">
         <v>46</v>
       </c>
-      <c r="F38" s="29" t="s">
-        <v>153</v>
+      <c r="F38" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="G38" s="3">
         <v>47</v>
@@ -7191,28 +7205,28 @@
       <c r="S38" s="3">
         <v>54</v>
       </c>
-      <c r="T38" s="31">
+      <c r="T38" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="22">
         <v>19</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="24">
         <v>42759</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="20">
         <v>33</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="22">
         <v>46</v>
       </c>
-      <c r="F39" s="29" t="s">
-        <v>154</v>
+      <c r="F39" s="26" t="s">
+        <v>153</v>
       </c>
       <c r="G39" s="3">
         <v>47</v>
@@ -7253,28 +7267,28 @@
       <c r="S39" s="3">
         <v>54</v>
       </c>
-      <c r="T39" s="31">
+      <c r="T39" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="24">
-        <v>54</v>
-      </c>
-      <c r="C40" s="26">
+      <c r="B40" s="22">
+        <v>54</v>
+      </c>
+      <c r="C40" s="24">
         <v>42759</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="20">
         <v>33</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="22">
         <v>46</v>
       </c>
-      <c r="F40" s="29" t="s">
-        <v>155</v>
+      <c r="F40" s="26" t="s">
+        <v>154</v>
       </c>
       <c r="G40" s="3">
         <v>47</v>
@@ -7315,22 +7329,22 @@
       <c r="S40" s="3">
         <v>54</v>
       </c>
-      <c r="T40" s="31">
+      <c r="T40" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="24">
+      <c r="A41" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="22">
         <v>46</v>
       </c>
-      <c r="F41" s="29" t="s">
-        <v>156</v>
+      <c r="F41" s="26" t="s">
+        <v>155</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -7371,22 +7385,22 @@
       <c r="S41" s="3">
         <v>54</v>
       </c>
-      <c r="T41" s="31">
+      <c r="T41" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A42" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="24">
+      <c r="A42" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="22">
         <v>46</v>
       </c>
-      <c r="F42" s="29" t="s">
-        <v>157</v>
+      <c r="F42" s="26" t="s">
+        <v>156</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -7427,43 +7441,43 @@
       <c r="S42" s="3">
         <v>54</v>
       </c>
-      <c r="T42" s="31">
+      <c r="T42" s="28">
         <v>0</v>
       </c>
-      <c r="AA42" s="38">
+      <c r="AA42" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="32" t="s">
+    <row r="43" spans="1:28" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="32">
+      <c r="B43" s="29">
         <v>60</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="30">
         <v>42746</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="31">
         <v>24</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="G43" s="37">
+      <c r="E43" s="29"/>
+      <c r="F43" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="34">
         <v>0</v>
       </c>
-      <c r="T43" s="36">
+      <c r="T43" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A44" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>176</v>
+      <c r="A44" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>175</v>
       </c>
       <c r="G44">
         <v>45</v>
@@ -7473,40 +7487,40 @@
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A45" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="G45" s="39">
+      <c r="A45" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="G45" s="36">
         <v>0</v>
       </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
-      <c r="AA45" s="37"/>
-      <c r="AB45" s="37"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
     </row>
     <row r="50" spans="36:38" x14ac:dyDescent="0.2">
       <c r="AJ50">
@@ -7515,7 +7529,7 @@
       </c>
     </row>
     <row r="59" spans="36:38" x14ac:dyDescent="0.2">
-      <c r="AK59" s="41">
+      <c r="AK59" s="37">
         <v>1000000</v>
       </c>
     </row>
@@ -7524,7 +7538,7 @@
         <f>13*40</f>
         <v>520</v>
       </c>
-      <c r="AL60" s="41">
+      <c r="AL60" s="37">
         <f>AK59/AK60</f>
         <v>1923.0769230769231</v>
       </c>
